--- a/fhir/core/2.2.0/StructureDefinition-dk-core-practitioner.xlsx
+++ b/fhir/core/2.2.0/StructureDefinition-dk-core-practitioner.xlsx
@@ -9,14 +9,11 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$35</definedName>
-  </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="290">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-30T22:07:34+02:00</t>
+    <t>2023-05-04T21:35:52+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +111,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/ipa/StructureDefinition/ipa-practitioner</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Practitioner</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -533,14 +530,18 @@
     <t>The name(s) associated with the practitioner.</t>
   </si>
   <si>
-    <t>In some contexts, the real name of the practitioner is obscured. However this is handled, the resource must include at least some useable name for the practitioner in the name.text element</t>
+    <t>The selection of the use property should ensure that there is a single usual name specified, and others use the nickname (alias), old, or other values as appropriate.  ++In general, select the value to be used in the ResourceReference.display based on this:++1. There is more than 1 name+2. Use = usual+3. Period is current to the date of the usage+4. Use = official+5. Other order as decided by internal business rules.</t>
   </si>
   <si>
     <t>The name(s) that a Practitioner is known by. Where there are multiple, the name that the practitioner is usually known as should be used in the display.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ipa-pract-1:To be usable for a wide range of internationally available applications, the Patient.name.text SHOULD be present. {text.exists()}</t>
   </si>
   <si>
     <t>XCN Components</t>
@@ -1051,21 +1052,6 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="22"/>
-        <i val="true"/>
-      </font>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
@@ -1414,7 +1400,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" hidden="true">
+    <row r="2">
       <c r="A2" t="s" s="2">
         <v>30</v>
       </c>
@@ -1526,7 +1512,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" hidden="true">
+    <row r="3">
       <c r="A3" t="s" s="2">
         <v>86</v>
       </c>
@@ -1640,7 +1626,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" hidden="true">
+    <row r="4">
       <c r="A4" t="s" s="2">
         <v>94</v>
       </c>
@@ -1752,7 +1738,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" hidden="true">
+    <row r="5">
       <c r="A5" t="s" s="2">
         <v>100</v>
       </c>
@@ -1866,7 +1852,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" hidden="true">
+    <row r="6">
       <c r="A6" t="s" s="2">
         <v>106</v>
       </c>
@@ -1980,7 +1966,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" hidden="true">
+    <row r="7">
       <c r="A7" t="s" s="2">
         <v>115</v>
       </c>
@@ -2094,7 +2080,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" hidden="true">
+    <row r="8">
       <c r="A8" t="s" s="2">
         <v>123</v>
       </c>
@@ -2208,7 +2194,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" hidden="true">
+    <row r="9">
       <c r="A9" t="s" s="2">
         <v>131</v>
       </c>
@@ -2322,7 +2308,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" hidden="true">
+    <row r="10">
       <c r="A10" t="s" s="2">
         <v>139</v>
       </c>
@@ -2438,7 +2424,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" hidden="true">
+    <row r="11">
       <c r="A11" t="s" s="2">
         <v>144</v>
       </c>
@@ -2552,7 +2538,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="12" hidden="true">
+    <row r="12">
       <c r="A12" t="s" s="2">
         <v>153</v>
       </c>
@@ -2670,7 +2656,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="13" hidden="true">
+    <row r="13">
       <c r="A13" t="s" s="2">
         <v>162</v>
       </c>
@@ -2683,13 +2669,13 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>77</v>
@@ -2771,27 +2757,27 @@
         <v>77</v>
       </c>
       <c r="AJ13" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="AK13" t="s" s="2">
+      <c r="AL13" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="AL13" t="s" s="2">
+      <c r="AM13" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="AM13" t="s" s="2">
+      <c r="AN13" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="AN13" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" hidden="true">
-      <c r="A14" t="s" s="2">
-        <v>172</v>
-      </c>
       <c r="B14" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2814,19 +2800,19 @@
         <v>88</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="N14" t="s" s="2">
+      <c r="O14" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>77</v>
@@ -2875,7 +2861,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -2890,24 +2876,24 @@
         <v>99</v>
       </c>
       <c r="AK14" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AL14" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="AL14" t="s" s="2">
+      <c r="AM14" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="AM14" t="s" s="2">
+      <c r="AN14" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="AN14" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="15" hidden="true">
-      <c r="A15" t="s" s="2">
-        <v>181</v>
-      </c>
       <c r="B15" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2930,19 +2916,19 @@
         <v>88</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="N15" t="s" s="2">
+      <c r="O15" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -2991,7 +2977,7 @@
         <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
@@ -3006,24 +2992,24 @@
         <v>99</v>
       </c>
       <c r="AK15" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AL15" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="AL15" t="s" s="2">
+      <c r="AM15" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="AM15" t="s" s="2">
+      <c r="AN15" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="AN15" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" hidden="true">
-      <c r="A16" t="s" s="2">
-        <v>190</v>
-      </c>
       <c r="B16" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3049,14 +3035,14 @@
         <v>107</v>
       </c>
       <c r="L16" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>77</v>
@@ -3081,14 +3067,14 @@
         <v>77</v>
       </c>
       <c r="X16" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="Y16" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="Y16" t="s" s="2">
+      <c r="Z16" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="Z16" t="s" s="2">
-        <v>196</v>
-      </c>
       <c r="AA16" t="s" s="2">
         <v>77</v>
       </c>
@@ -3105,7 +3091,7 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -3120,24 +3106,24 @@
         <v>99</v>
       </c>
       <c r="AK16" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="AL16" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="AL16" t="s" s="2">
+      <c r="AM16" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="AM16" t="s" s="2">
+      <c r="AN16" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="AN16" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" hidden="true">
-      <c r="A17" t="s" s="2">
-        <v>200</v>
-      </c>
       <c r="B17" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3160,17 +3146,17 @@
         <v>88</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>77</v>
@@ -3219,7 +3205,7 @@
         <v>77</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
@@ -3234,24 +3220,24 @@
         <v>99</v>
       </c>
       <c r="AK17" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AL17" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="AL17" t="s" s="2">
+      <c r="AM17" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="AM17" t="s" s="2">
+      <c r="AN17" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="AN17" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" hidden="true">
-      <c r="A18" t="s" s="2">
-        <v>208</v>
-      </c>
       <c r="B18" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3274,17 +3260,17 @@
         <v>77</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>77</v>
@@ -3333,7 +3319,7 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
@@ -3351,21 +3337,21 @@
         <v>77</v>
       </c>
       <c r="AL18" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AM18" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="AM18" t="s" s="2">
+      <c r="AN18" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="AN18" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" hidden="true">
-      <c r="A19" t="s" s="2">
-        <v>215</v>
-      </c>
       <c r="B19" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3388,13 +3374,13 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3433,19 +3419,19 @@
         <v>77</v>
       </c>
       <c r="AB19" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AC19" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="AC19" t="s" s="2">
+      <c r="AD19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE19" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="AD19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>221</v>
-      </c>
       <c r="AF19" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -3460,24 +3446,24 @@
         <v>99</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AM19" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="AM19" t="s" s="2">
+      <c r="AN19" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="AN19" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="20" hidden="true">
-      <c r="A20" t="s" s="2">
-        <v>225</v>
-      </c>
       <c r="B20" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3500,13 +3486,13 @@
         <v>77</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3557,7 +3543,7 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
@@ -3575,21 +3561,21 @@
         <v>77</v>
       </c>
       <c r="AL20" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AM20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN20" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="AM20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="21" hidden="true">
-      <c r="A21" t="s" s="2">
-        <v>231</v>
-      </c>
       <c r="B21" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3618,7 +3604,7 @@
         <v>134</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="N21" t="s" s="2">
         <v>136</v>
@@ -3671,7 +3657,7 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -3689,7 +3675,7 @@
         <v>77</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>77</v>
@@ -3698,16 +3684,16 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -3729,10 +3715,10 @@
         <v>133</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="N22" t="s" s="2">
         <v>136</v>
@@ -3787,7 +3773,7 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -3814,12 +3800,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3845,14 +3831,14 @@
         <v>145</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>77</v>
@@ -3901,7 +3887,7 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -3919,21 +3905,21 @@
         <v>77</v>
       </c>
       <c r="AL23" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="AM23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN23" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="AM23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" hidden="true">
-      <c r="A24" t="s" s="2">
-        <v>244</v>
-      </c>
       <c r="B24" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3956,13 +3942,13 @@
         <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3989,14 +3975,14 @@
         <v>77</v>
       </c>
       <c r="X24" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="Y24" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="Y24" t="s" s="2">
+      <c r="Z24" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="Z24" t="s" s="2">
-        <v>250</v>
-      </c>
       <c r="AA24" t="s" s="2">
         <v>77</v>
       </c>
@@ -4013,7 +3999,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>87</v>
@@ -4031,21 +4017,21 @@
         <v>77</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AM24" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="AN24" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="AN24" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="25" hidden="true">
-      <c r="A25" t="s" s="2">
-        <v>252</v>
-      </c>
       <c r="B25" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4068,17 +4054,17 @@
         <v>77</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -4127,7 +4113,7 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
@@ -4145,21 +4131,21 @@
         <v>77</v>
       </c>
       <c r="AL25" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="AM25" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="AM25" t="s" s="2">
+      <c r="AN25" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="AN25" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="26" hidden="true">
-      <c r="A26" t="s" s="2">
-        <v>259</v>
-      </c>
       <c r="B26" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4182,13 +4168,13 @@
         <v>77</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4239,7 +4225,7 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -4257,24 +4243,24 @@
         <v>77</v>
       </c>
       <c r="AL26" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AM26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN26" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="AM26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="27" hidden="true">
-      <c r="A27" t="s" s="2">
+      <c r="B27" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="C27" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="C27" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="D27" t="s" s="2">
         <v>77</v>
@@ -4296,13 +4282,13 @@
         <v>77</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4353,7 +4339,7 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -4368,24 +4354,24 @@
         <v>99</v>
       </c>
       <c r="AK27" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AL27" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="AL27" t="s" s="2">
+      <c r="AM27" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="AM27" t="s" s="2">
+      <c r="AN27" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="B28" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="28" hidden="true">
-      <c r="A28" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="B28" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4408,13 +4394,13 @@
         <v>77</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4465,7 +4451,7 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -4483,21 +4469,21 @@
         <v>77</v>
       </c>
       <c r="AL28" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AM28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN28" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="B29" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="29" hidden="true">
-      <c r="A29" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="B29" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4526,7 +4512,7 @@
         <v>134</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="N29" t="s" s="2">
         <v>136</v>
@@ -4579,7 +4565,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -4597,7 +4583,7 @@
         <v>77</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>77</v>
@@ -4606,16 +4592,16 @@
         <v>77</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -4637,10 +4623,10 @@
         <v>133</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="N30" t="s" s="2">
         <v>136</v>
@@ -4695,7 +4681,7 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -4722,12 +4708,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="31" hidden="true">
+    <row r="31">
       <c r="A31" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4750,17 +4736,17 @@
         <v>77</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>77</v>
@@ -4809,7 +4795,7 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -4818,30 +4804,30 @@
         <v>79</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK31" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="AL31" t="s" s="2">
+      <c r="AM31" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="AM31" t="s" s="2">
+      <c r="AN31" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="AN31" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="32" hidden="true">
-      <c r="A32" t="s" s="2">
-        <v>277</v>
-      </c>
       <c r="B32" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4864,13 +4850,13 @@
         <v>77</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -4897,11 +4883,11 @@
         <v>77</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="Y32" s="2"/>
       <c r="Z32" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>77</v>
@@ -4919,7 +4905,7 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>87</v>
@@ -4937,21 +4923,21 @@
         <v>77</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AM32" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="AN32" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="B33" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="AN32" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="33" hidden="true">
-      <c r="A33" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="B33" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4974,17 +4960,17 @@
         <v>77</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>77</v>
@@ -5033,7 +5019,7 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -5051,21 +5037,21 @@
         <v>77</v>
       </c>
       <c r="AL33" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="AM33" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="AM33" t="s" s="2">
+      <c r="AN33" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="B34" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="AN33" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="34" hidden="true">
-      <c r="A34" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="B34" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5088,13 +5074,13 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5145,7 +5131,7 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -5163,7 +5149,7 @@
         <v>77</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>77</v>
@@ -5172,12 +5158,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5200,19 +5186,19 @@
         <v>77</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="N35" t="s" s="2">
+      <c r="O35" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -5261,7 +5247,7 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -5276,37 +5262,19 @@
         <v>99</v>
       </c>
       <c r="AK35" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AL35" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="AL35" t="s" s="2">
+      <c r="AM35" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="AM35" t="s" s="2">
-        <v>290</v>
-      </c>
       <c r="AN35" t="s" s="2">
         <v>77</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN35">
-    <filterColumn colId="6">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="26">
-      <filters blank="true"/>
-    </filterColumn>
-  </autoFilter>
-  <conditionalFormatting sqref="A2:AI34">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$G2&lt;&gt;"Y"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$Q2&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/fhir/core/2.2.0/StructureDefinition-dk-core-practitioner.xlsx
+++ b/fhir/core/2.2.0/StructureDefinition-dk-core-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-04T21:35:52+02:00</t>
+    <t>2023-05-05T01:37:30+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
